--- a/Test_set.xlsx
+++ b/Test_set.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26719" uniqueCount="1290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26720" uniqueCount="1290">
   <si>
     <t>Airline</t>
   </si>
@@ -3945,13 +3945,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4249,7 +4248,7 @@
   <dimension ref="A1:J2672"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4302,8 +4301,8 @@
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3">
-        <v>43622</v>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>65</v>
